--- a/Seed papers and RQs.xlsx
+++ b/Seed papers and RQs.xlsx
@@ -8,33 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleschen/Documents/research/PhD/uol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A733275-B883-CF46-A9A4-19294437DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674CA91B-9E70-EE42-AF3A-2F9F0CDD425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28580" windowHeight="16160" activeTab="8" xr2:uid="{62355FC9-FE9A-CF40-A4E2-4D22B17079D1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16160" activeTab="2" xr2:uid="{62355FC9-FE9A-CF40-A4E2-4D22B17079D1}"/>
   </bookViews>
   <sheets>
     <sheet name="RQs" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
     <sheet name="Msvc Comp Frameworks" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Taxonomy" sheetId="9" r:id="rId7"/>
-    <sheet name="Patterns" sheetId="10" r:id="rId8"/>
-    <sheet name="Project Plan" sheetId="12" r:id="rId9"/>
-    <sheet name="Related work" sheetId="3" r:id="rId10"/>
-    <sheet name="Final sample" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Taxonomy" sheetId="9" r:id="rId6"/>
+    <sheet name="Patterns" sheetId="10" r:id="rId7"/>
+    <sheet name="Project Plan" sheetId="12" r:id="rId8"/>
+    <sheet name="Related work" sheetId="3" r:id="rId9"/>
+    <sheet name="Final sample" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Msvc Comp Frameworks'!$E$1:$E$142</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Patterns!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Patterns!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Patterns!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Patterns!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Patterns!$B$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Patterns!$B$2:$B$14</definedName>
-    <definedName name="bbib38" localSheetId="9">'Related work'!$B$5</definedName>
-    <definedName name="bbib86" localSheetId="9">'Related work'!$B$3</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$C$90:$C$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$89</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$D$90:$D$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$90:$C$95</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$D$89</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$D$90:$D$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$90:$C$95</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$D$89</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$90:$D$95</definedName>
+    <definedName name="bbib38" localSheetId="8">'Related work'!$B$5</definedName>
+    <definedName name="bbib86" localSheetId="8">'Related work'!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="733">
   <si>
     <t>References</t>
   </si>
@@ -8544,96 +8546,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Composition method:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Orchestration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-Description:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">describes agile business process modeling with Microflows, an automatic lightweight declarative approach for the workflow-centric orchestration of semantically-annotated microservices using agent-based clients, graph-based methods, and the lightweight semantic vocabularies JSON-LD and Hydra. The solution approach consists of the following  principles: (i) Microservice semantic self-description principle: microservices provide sufficient  semantic metadata to support  autonomous client invocation, such that the client state at the point of invocation contains the semantic inputs required for the microservice invocation. The key yo yhis solution is the reliance on goaland constraint-based agents using automated planners to navigate semantically-described microservices, thus the workflow is dynamically constructed, reducing the overall labor involved in
-manual modeling of rigid workflows that cannot
-automatically adapt to changes in the microservice
-landscape, analogous to the benefits of declarative
-over imperative programmingThe realization uses JSON-LD/Hydra. (ii) Client  agent  principle:  for the client agent  intelligent  agents  exhibit reactivity, proactiveness, and social ability, managing a model of their environment and can plan their  actions and undertake goal-oriented behavior. Nominal WfMS are typically passive, executing a workflow according to a manually
-determined plan (workflow schema). Because of the
-expected scale in the number of possible microservices, the required goal-oriented choices in workflow modeling and planning, and the autonomous goal-directed action required during enactment, agent technology seems appropriate. Specifically, we chose Belief-Desire-Intention (BDI) agents (Bratman et al., 1988) for the client realization, providing belief (knowledge), desire via
-goals, and intention utilizing generated plans that are
-the workflow
-(iii) Graph of microservices principle: microservices  are mapped to nodes in a graph and can be stored in a graph database. To reduce redundant  resource usage via multiple database instances,   the graph database could be shared by the clients as an additional microservice.
-(iv) Microflow as graph path principle:  a directed  graph of nodes corresponds to a workflow, a   sequence of operations on those microservices,  and is determined by an algorithm applied to the  graph, such as shortest path. The enactment of   the workflow involves the invocation of  microservices, with inputs and outputs retained  in the client and corresponding to the client state
-(v) Declarative principle:  any workflow    requirement specifications take the form of    declarative goal and constraint modelling      statements, such as the starting microservice  type, end microservice type, and constraints such   as  sequencing or branch logic constraints.
-(vi) Microservice discovery service principle      (optional): we assume a microservice landscape  to be much more dynamic with microservices  coming and going in contrast to more heavyweight services. A microservice registry and  discovery service (a type of Meta Service  can  be  utilized  to  manage this and could be deployed in various ways, including  centralized,  distributed,  client-embedded,  with voluntary microservice-triggered registration or multicast-triggered     mechanisms.
-(vii) Abstract  microservices principle (optional):    microservices with  similar functionality (search,   hotel booking, flight booking, etc.) can be  grouped behind an abstract microservice.
-Path weighting principle (optional): any follower of a service, be it abstract or concrete, can be  weighted with a potentially dynamic cost that  helps in quantifying and comparing one path with another in the form of relative cost. 
-(viii) Logic  principle (optional):  if  the  path  weighting  is insufficient and more complex logic is desired for assessing branching or error conditions.
-Microflow lifecycle has 4 stages: The Microservice    Discovery stage (involves utilizing a microservice  discovery service  to  build  a  graph  of  nodes  containing the  properties of  the  microservices and links (followers) to other  microservices, analogous to mapping the landscape). The Microflow Planning stage (an  agent  takes  the  goal and other constraints  and  creates a plan known  as a  Microflow, finding an appropriate start and  end node  and using  an algorithm such as  shortest path to determine a directed path). The Microflow Enactment stage, the Microflow is  executed  by  invoking  each microservice  in  the  order  of  the  plan, typically  sequentially  but  it  could  involve  parallel  invocation. The Microflow   Analysis stage involves the monitoring, analysis,  and  mining of execution  logs in order to  improve future planning
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Experimentation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-As an illustrative example, we created our own  travel booking process whereby both a hotel and flight should be found, whereafter a booking (reservation) of each is performed, and then payment is collected. Virtual microservices are used during enactment that differentiate    themselves semantically  but provide  no real invocation functionality.  The equivalent BPMN  model generated an XML file using Camunda  Modeler  consisting of 209  lines and 11372  characters. In contrast, the Microflow constraint    JSON file generated from this model by our BPMN-Microflow transformation tool contains   14 lines and 460 characters</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-Strengths/Weaknesses/Limitations:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">goal-and constraint-based agents using    automated planners to navigate semantically-described microservices which means the workflow is  dynamically constructed, reducing the overall  labor involved in manual modeling of rigid  workflows that cannot automatically adapt to  changes in the microservice landscape,  analogous to the benefits of declarative over imperative programming. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">O/BPMN, orchestration of semantically-annotated microservices using
 </t>
     </r>
@@ -14498,33 +14410,6 @@
     <t>To evaluate the proposed mechanisms, two experiments are conducted. The experimental result considers the following items: (a) total request time, (b) finished requests and compensated requests, (c) resource reservation time in a service. For client programs, the total request time is the time of sending requests to a service composition, and it is measured by the time between sending the first request and receiving the last response. The finished requests and the compensated requests are the numbers of requests that a microservice composition processed and aborted, respectively. The resource reservation time (in a service) is the time period that a microservice can reserve the resources. It is measured by the time between reserving resources and cancelling the reservation.</t>
   </si>
   <si>
-    <r>
-      <t>F. Baklouti, N. Le Sommer and Y. Mahéo, "Choreography-based vs orchestration-based service composition in opportunistic networks," </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017 IEEE 13th International Conference on Wireless and Mobile Computing, Networking and Communications (WiMob)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2017, pp. 1-8, doi: 10.1109/WiMOB.2017.8115771.</t>
-    </r>
-  </si>
-  <si>
-    <t>Defines Chor and orch as service composition strategies</t>
-  </si>
-  <si>
     <t>This work introduces a heuristic based services binding algorithm to improve fault-tolerant MEC in microservice architecture with the help of Cache-enabled Edge Nodes. This challenge is modeled as a constrained optimization problem on services composition and network nodes graphs
 improved performance using offloading algorithms.
 Finally, due to some unexpected impacts, if some edge nodes disconnect from MEC suddenly, emergency of-floading algorithm should recompose, rebind microser-vices in cache-enabled edge nodes (CEN) and perform heuristic scheduling from historical result within limited response time. From the above discussion, with gradual increasement of microservices and CEN, the expense of computation is unaffordable.</t>
@@ -15174,13 +15059,145 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>event-driven</t>
+  </si>
+  <si>
+    <t>request-response</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>sync/async</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Composition method:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Orchestration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Description:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">describes agile business process modeling with Microflows, an automatic lightweight declarative approach for the workflow-centric orchestration of semantically-annotated microservices using agent-based clients, graph-based methods, and the lightweight semantic vocabularies JSON-LD and Hydra. The solution approach consists of the following  principles: (i) Microservice semantic self-description principle: microservices provide sufficient  semantic metadata to support  autonomous client invocation, such that the client state at the point of invocation contains the semantic inputs required for the microservice invocation. The key yo yhis solution is the reliance on goaland constraint-based agents using automated planners to navigate semantically-described microservices, thus the workflow is dynamically constructed, reducing the overall labor involved in
+manual modeling of rigid workflows that cannot
+automatically adapt to changes in the microservice
+landscape, analogous to the benefits of declarative
+over imperative programmingThe realization uses JSON-LD/Hydra. (ii) Client  agent  principle:  for the client agent  intelligent  agents  exhibit reactivity, proactiveness, and social ability, managing a model of their environment and can plan their  actions and undertake goal-oriented behavior. Nominal WfMS are typically passive, executing a workflow according to a manually
+determined plan (workflow schema). Because of the
+expected scale in the number of possible microservices, the required goal-oriented choices in workflow modeling and planning, and the autonomous goal-directed action required during enactment, agent technology seems appropriate. Specifically, we chose Belief-Desire-Intention (BDI) agents (Bratman et al., 1988) for the client realization, providing belief (knowledge), desire via
+goals, and intention utilizing generated plans that are
+the workflow
+(iii) Graph of microservices principle: microservices  are mapped to nodes in a graph and can be stored in a graph database. To reduce redundant  resource usage via multiple database instances,   the graph database could be shared by the clients as an additional microservice.
+(iv) Microflow as graph path principle:  a directed  graph of nodes corresponds to a workflow, a   sequence of operations on those microservices,  and is determined by an algorithm applied to the  graph, such as shortest path. The enactment of   the workflow involves the invocation of  microservices, with inputs and outputs retained  in the client and corresponding to the client state
+(v) Declarative principle:  any workflow    requirement specifications take the form of    declarative goal and constraint modelling      statements, such as the starting microservice  type, end microservice type, and constraints such   as  sequencing or branch logic constraints.
+(vi) Microservice discovery service principle      (optional): we assume a microservice landscape  to be much more dynamic with microservices  coming and going in contrast to more heavyweight services. A microservice registry and  discovery service (a type of Meta Service  can  be  utilized  to  manage this and could be deployed in various ways, including  centralized,  distributed,  client-embedded,  with voluntary microservice-triggered registration or multicast-triggered     mechanisms.
+(vii) Abstract  microservices principle (optional):    microservices with  similar functionality (search,   hotel booking, flight booking, etc.) can be  grouped behind an abstract microservice.
+Path weighting principle (optional): any follower of a service, be it abstract or concrete, can be  weighted with a potentially dynamic cost that  helps in quantifying and comparing one path with another in the form of relative cost. 
+(viii) Logic  principle (optional):  if  the  path  weighting  is insufficient and more complex logic is desired for assessing branching or error conditions.
+Microflow lifecycle has 4 stages: i. The Microservice    Discovery stage (involves utilizing a microservice  discovery service  to  build  a  graph  of  nodes  containing the  properties of  the  microservices and links (followers) to other  microservices, analogous to mapping the landscape) ii. The Microflow Planning stage (an  agent  takes  the  goal and other constraints  and  creates a plan known  as a  Microflow, finding an appropriate start and  end node  and using  an algorithm such as  shortest path to determine a directed path). iii. The Microflow Enactment stage, the Microflow is  executed  by  invoking  each microservice  in  the  order  of  the  plan, typically  sequentially  but  it  could  involve  parallel  invocation. The Microflow   Analysis stage involves the monitoring, analysis,  and  mining of execution  logs in order to  improve future planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Experimentation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+As an illustrative example, we created our own  travel booking process whereby both a hotel and flight should be found, whereafter a booking (reservation) of each is performed, and then payment is collected. Virtual microservices are used during enactment that differentiate    themselves semantically  but provide  no real invocation functionality.  The equivalent BPMN  model generated an XML file using Camunda  Modeler  consisting of 209  lines and 11372  characters. In contrast, the Microflow constraint    JSON file generated from this model by our BPMN-Microflow transformation tool contains   14 lines and 460 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Strengths/Weaknesses/Limitations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">goal-and constraint-based agents using    automated planners to navigate semantically-described microservices which means the workflow is  dynamically constructed, reducing the overall  labor involved in manual modeling of rigid  workflows that cannot automatically adapt to  changes in the microservice landscape,  analogous to the benefits of declarative over imperative programming. </t>
+    </r>
+  </si>
+  <si>
+    <t>dynamic workflow</t>
+  </si>
+  <si>
+    <t>s5, s21</t>
+  </si>
+  <si>
+    <t>manual/static modelling</t>
+  </si>
+  <si>
+    <t>s1, s10, s23, s25, s26, s27, s28, s29, s31,s33, s34, 38, s40</t>
+  </si>
+  <si>
+    <t>s4, s9, s16, s17, s39, s47</t>
+  </si>
+  <si>
+    <t>s2, s4, s6, s9, s13, s15, s19, s27, s28, s30, s41, s43, s44, s46, s47, s54</t>
+  </si>
+  <si>
+    <t>s7, s8, s11, s12, s13, s18, s20, s22, s23, s24, s35, s36, s37, s41, s42, s43, s44, s45, s52, s53, s56</t>
+  </si>
+  <si>
+    <t>s1, s2, s3, s4, s9, s29, s30, s32, s39, s49, s55, s57</t>
+  </si>
+  <si>
+    <t>Compositions methods</t>
+  </si>
+  <si>
+    <t>Microservices composition methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -15385,19 +15402,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -15592,9 +15596,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15671,9 +15675,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -15699,7 +15700,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15708,7 +15709,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15720,28 +15721,28 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16132,7 +16133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$D$9</c:f>
+              <c:f>Sheet2!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -16948,7 +16949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$55:$D$75</c:f>
+              <c:f>Sheet2!$E$55:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -17535,7 +17536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$55:$E$75</c:f>
+              <c:f>Sheet2!$F$55:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -17876,7 +17877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$17:$D$49</c:f>
+              <c:f>Sheet2!$E$17:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -18439,7 +18440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$17:$D$51</c:f>
+              <c:f>Sheet2!$E$17:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -18729,6 +18730,430 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microservices composition methods</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="16"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$90:$C$95</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>event-driven</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>request-response</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sync/async</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic workflow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>manual/static modelling</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$90:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8AA-594D-8593-6F9904094C78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -19226,6 +19651,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -21300,6 +21765,607 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21808,13 +22874,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>364654</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50297</xdr:rowOff>
@@ -21844,13 +22910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>339506</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>88019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>88020</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>100594</xdr:rowOff>
@@ -21880,13 +22946,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1181980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>679010</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>100595</xdr:rowOff>
@@ -21916,13 +22982,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>565841</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>176039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>301782</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1207128</xdr:rowOff>
@@ -21945,6 +23011,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138317</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>75445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465247</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>188614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA12A31C-4ADF-5C48-9F90-A22D150FEBAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22424,82 +23526,82 @@
     </row>
     <row r="10" spans="1:8" ht="40" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="53" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="53" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="40" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="53" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="66" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="79" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="79" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="79" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="129" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -22509,178 +23611,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9F973F-52B1-8343-9F6A-59CD783DD158}">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="61.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="40" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="40" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="40" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="40" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="40" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="53" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="53" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="116" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF31B61-FD12-0A41-844A-DC95EFCDD4CC}">
   <dimension ref="A1:A53"/>
   <sheetViews>
@@ -22740,82 +23670,82 @@
     </row>
     <row r="10" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="52" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="52" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="52" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="52" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="66" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="142" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -22889,7 +23819,7 @@
     </row>
     <row r="10" spans="1:3" ht="53" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B10">
         <v>2310</v>
@@ -22897,7 +23827,7 @@
     </row>
     <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>135</v>
@@ -22905,72 +23835,72 @@
     </row>
     <row r="12" spans="1:3" ht="53" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="79" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="92" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="53" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="66" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="131" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="241" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -22984,8 +23914,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23002,17 +23932,17 @@
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>52</v>
@@ -23023,19 +23953,19 @@
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>283</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>54</v>
@@ -23044,19 +23974,19 @@
         <v>55</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>196</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G3" t="s">
-        <v>507</v>
+      <c r="G3" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>56</v>
@@ -23065,16 +23995,16 @@
         <v>57</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>196</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>285</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="H4" s="31"/>
+        <v>505</v>
+      </c>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -23096,10 +24026,10 @@
     </row>
     <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>215</v>
@@ -23109,15 +24039,15 @@
         <v>195</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="404" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>60</v>
@@ -23133,12 +24063,12 @@
         <v>286</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>62</v>
@@ -23154,15 +24084,15 @@
         <v>287</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>288</v>
+        <v>722</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>64</v>
@@ -23172,15 +24102,15 @@
         <v>195</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>65</v>
@@ -23193,12 +24123,12 @@
         <v>216</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>66</v>
@@ -23214,12 +24144,12 @@
         <v>217</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>68</v>
@@ -23235,12 +24165,12 @@
         <v>218</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>70</v>
@@ -23253,15 +24183,15 @@
         <v>195</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>72</v>
@@ -23277,12 +24207,12 @@
         <v>219</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>74</v>
@@ -23291,19 +24221,19 @@
         <v>75</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>195</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>220</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>76</v>
@@ -23316,18 +24246,18 @@
         <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>78</v>
@@ -23337,15 +24267,15 @@
         <v>195</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>79</v>
@@ -23357,16 +24287,16 @@
       <c r="E18" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>336</v>
+      <c r="F18" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>179</v>
@@ -23384,7 +24314,7 @@
     </row>
     <row r="20" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>82</v>
@@ -23397,12 +24327,12 @@
         <v>195</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>147</v>
@@ -23415,7 +24345,7 @@
         <v>195</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -23452,7 +24382,7 @@
     </row>
     <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>149</v>
@@ -23465,12 +24395,12 @@
         <v>195</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>150</v>
@@ -23483,7 +24413,7 @@
         <v>195</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -23696,7 +24626,7 @@
     </row>
     <row r="39" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>162</v>
@@ -23709,7 +24639,7 @@
         <v>195</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -23922,7 +24852,7 @@
     </row>
     <row r="53" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>174</v>
@@ -23935,15 +24865,15 @@
         <v>195</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>21</v>
@@ -23953,7 +24883,7 @@
         <v>195</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24134,7 +25064,7 @@
     </row>
     <row r="65" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>182</v>
@@ -24152,10 +25082,10 @@
     </row>
     <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>183</v>
@@ -24165,12 +25095,12 @@
         <v>195</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>185</v>
@@ -24183,7 +25113,7 @@
         <v>195</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24220,7 +25150,7 @@
     </row>
     <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>187</v>
@@ -24238,10 +25168,10 @@
     </row>
     <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>188</v>
@@ -24256,7 +25186,7 @@
     </row>
     <row r="72" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>189</v>
@@ -24272,7 +25202,7 @@
         <v>240</v>
       </c>
       <c r="G72" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24357,10 +25287,10 @@
     </row>
     <row r="78" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>21</v>
@@ -24370,7 +25300,7 @@
         <v>195</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24487,7 +25417,7 @@
     </row>
     <row r="86" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>192</v>
@@ -24500,7 +25430,7 @@
         <v>195</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="143" hidden="1" x14ac:dyDescent="0.2">
@@ -24537,7 +25467,7 @@
     </row>
     <row r="89" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>194</v>
@@ -24587,10 +25517,10 @@
     </row>
     <row r="92" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>21</v>
@@ -24600,7 +25530,7 @@
         <v>195</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="169" hidden="1" x14ac:dyDescent="0.2">
@@ -24621,20 +25551,20 @@
     </row>
     <row r="94" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B94" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" t="s">
         <v>195</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24703,46 +25633,46 @@
     </row>
     <row r="99" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" t="s">
         <v>195</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" t="s">
         <v>195</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>21</v>
@@ -24752,7 +25682,7 @@
         <v>195</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="130" hidden="1" x14ac:dyDescent="0.2">
@@ -24773,10 +25703,10 @@
     </row>
     <row r="103" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>199</v>
@@ -24786,15 +25716,15 @@
         <v>195</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>200</v>
@@ -24804,7 +25734,7 @@
         <v>195</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="117" hidden="1" x14ac:dyDescent="0.2">
@@ -24841,10 +25771,10 @@
     </row>
     <row r="107" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>201</v>
@@ -24891,10 +25821,10 @@
     </row>
     <row r="110" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>484</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>21</v>
@@ -24904,7 +25834,7 @@
         <v>195</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="104" hidden="1" x14ac:dyDescent="0.2">
@@ -24925,7 +25855,7 @@
     </row>
     <row r="112" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>235</v>
@@ -24943,10 +25873,10 @@
     </row>
     <row r="113" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>21</v>
@@ -24956,25 +25886,25 @@
         <v>195</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" t="s">
         <v>195</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="143" hidden="1" x14ac:dyDescent="0.2">
@@ -24995,7 +25925,7 @@
     </row>
     <row r="116" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>203</v>
@@ -25013,7 +25943,7 @@
     </row>
     <row r="117" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>204</v>
@@ -25047,7 +25977,7 @@
     </row>
     <row r="119" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>206</v>
@@ -25065,7 +25995,7 @@
     </row>
     <row r="120" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>207</v>
@@ -25078,7 +26008,7 @@
         <v>195</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="130" hidden="1" x14ac:dyDescent="0.2">
@@ -25179,20 +26109,20 @@
     </row>
     <row r="127" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" t="s">
         <v>195</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="117" hidden="1" x14ac:dyDescent="0.2">
@@ -25247,7 +26177,7 @@
     </row>
     <row r="131" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>209</v>
@@ -25281,7 +26211,7 @@
     </row>
     <row r="133" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>210</v>
@@ -25331,7 +26261,7 @@
     </row>
     <row r="136" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>212</v>
@@ -25349,7 +26279,7 @@
     </row>
     <row r="137" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>227</v>
@@ -25362,12 +26292,12 @@
         <v>195</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>213</v>
@@ -25401,7 +26331,7 @@
     </row>
     <row r="140" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>214</v>
@@ -25417,7 +26347,7 @@
         <v>229</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="169" hidden="1" x14ac:dyDescent="0.2">
@@ -25437,13 +26367,13 @@
     </row>
     <row r="142" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B142" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C142" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" t="s">
@@ -25470,809 +26400,900 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C03AF1B-B21D-294A-A413-2ECA064F640E}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B76EB3-E2DF-9F4A-83C2-D33E0AA56166}">
+  <dimension ref="A4:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B76EB3-E2DF-9F4A-83C2-D33E0AA56166}">
-  <dimension ref="A4:N76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A82" zoomScale="101" workbookViewId="0">
+      <selection activeCell="R92" sqref="R92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="92" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="92" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+    <row r="12" spans="1:15" ht="92" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="O13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="118" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="N13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="118" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="105" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+    <row r="16" spans="1:15" ht="92" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:9" ht="131" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="131" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="21"/>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="79" x14ac:dyDescent="0.2">
+      <c r="G17" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="79" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="21"/>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="53" x14ac:dyDescent="0.2">
+      <c r="G18" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="53" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="21"/>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="92" x14ac:dyDescent="0.2">
+      <c r="G19" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="92" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="G20" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21">
         <v>4</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21">
         <v>1</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="H23" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="222" x14ac:dyDescent="0.2">
+      <c r="G23" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="222" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="222" x14ac:dyDescent="0.2">
+      <c r="G24" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="222" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21">
         <v>1</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
         <v>2</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21">
         <v>1</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21">
         <v>2</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="21" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21">
         <v>1</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21">
         <v>2</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21">
         <v>1</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21">
         <v>1</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21">
         <v>1</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21">
         <v>1</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C35" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21">
         <v>1</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21">
         <v>1</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C37" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21">
         <v>2</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C38" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21">
         <v>1</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="248" x14ac:dyDescent="0.2">
+      <c r="G38" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="248" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21">
         <v>1</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C40" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21">
         <v>2</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21">
         <v>1</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C42" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21">
         <v>1</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C43" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21">
         <v>1</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C44" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21">
         <v>1</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C45" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21">
         <v>1</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C46" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21">
         <v>1</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C47" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21">
         <v>1</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C48" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21">
         <v>1</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G48" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C49" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21">
         <v>1</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G49" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C50" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D50" s="21">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C51" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21">
         <v>1</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C51" s="21" t="s">
+      <c r="G51" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D51" s="21">
+    </row>
+    <row r="53" spans="1:13" ht="372" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="H55" t="s">
+        <v>323</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
-      <c r="F51" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="360" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>326</v>
-      </c>
-      <c r="D55">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>436</v>
-      </c>
-      <c r="G55" t="s">
-        <v>324</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>322</v>
-      </c>
       <c r="J55" t="s">
-        <v>330</v>
-      </c>
-      <c r="K55">
+        <v>321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55">
         <v>2</v>
       </c>
-      <c r="L55" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>249</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>5</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
         <v>426</v>
       </c>
-      <c r="J56" t="s">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>331</v>
       </c>
-      <c r="K56">
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>335</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>438</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>348</v>
+      </c>
+      <c r="E72">
         <v>4</v>
       </c>
-      <c r="L56" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D57">
+      <c r="F72" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>349</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>443</v>
+      </c>
+      <c r="E76">
+        <f>SUM(E55:E75)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>731</v>
+      </c>
+      <c r="D89" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>718</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>719</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>721</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>723</v>
+      </c>
+      <c r="D93">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>725</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>720</v>
+      </c>
+      <c r="D95">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>346</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>332</v>
-      </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>334</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>344</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>354</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>444</v>
-      </c>
-      <c r="D76">
-        <f>SUM(D55:D75)</f>
-        <v>98</v>
+      <c r="E95" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -26283,7 +27304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94728514-8F46-C143-BFFC-40A6DA9224E8}">
   <dimension ref="A1:A53"/>
   <sheetViews>
@@ -26301,82 +27322,82 @@
     </row>
     <row r="10" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="92" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="53" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="53" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="66" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="53" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="66" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="103" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -26385,7 +27406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4490EA28-E584-814F-97E1-D067E1171FAC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -26407,73 +27428,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="394" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="394" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>498</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="295" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -26487,7 +27508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270CD96-9301-2E49-B623-7DC5721115F8}">
   <dimension ref="A1:C88"/>
   <sheetViews>
@@ -26503,742 +27524,742 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>561</v>
+      <c r="A1" s="41" t="s">
+        <v>558</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B34" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="C33" s="43" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="B35" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="B34" s="44" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="B37" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="C37" s="48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="B36" s="44" t="s">
+      <c r="C46" s="44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="49"/>
+    </row>
+    <row r="50" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="50"/>
-    </row>
-    <row r="39" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>574</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>577</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>579</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>582</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>583</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="B48" s="47" t="s">
+      <c r="C50" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="C48" s="49" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="50"/>
-    </row>
-    <row r="50" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="B51" s="43" t="s">
         <v>601</v>
       </c>
-      <c r="B50" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="C50" s="45" t="s">
+      <c r="C51" s="44" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+    <row r="52" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B52" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C52" s="48" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="49"/>
+    </row>
+    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B54" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C54" s="44" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="50"/>
-    </row>
-    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+    <row r="55" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B55" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C55" s="48" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="49"/>
+    </row>
+    <row r="57" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
         <v>612</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B57" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C57" s="44" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="50"/>
-    </row>
-    <row r="57" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B58" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C58" s="45"/>
+    </row>
+    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="44" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
         <v>618</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B60" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="C58" s="46"/>
-    </row>
-    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="45" t="s">
+      <c r="C60" s="44" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+    <row r="61" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
         <v>621</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B61" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C61" s="44" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B62" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C62" s="44" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B63" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C63" s="44" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+    <row r="64" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
         <v>630</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+    <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C65" s="44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
+    <row r="66" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
         <v>636</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B66" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C66" s="44" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+    <row r="67" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B67" s="43" t="s">
         <v>640</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C67" s="44" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
         <v>642</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>643</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C68" s="44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B69" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C69" s="44" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+    <row r="70" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B70" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C70" s="44" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
+    <row r="71" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B71" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C71" s="44" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
+    <row r="72" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B72" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C72" s="44" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
+    <row r="73" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B73" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C73" s="44" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
+    <row r="74" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B74" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C74" s="44" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
+    <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B75" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C75" s="44" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
+    <row r="76" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B76" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>667</v>
       </c>
-      <c r="C75" s="45" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B77" s="43" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
+      <c r="C77" s="44" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>669</v>
       </c>
-      <c r="B76" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="C76" s="45" t="s">
+      <c r="C78" s="44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="B79" s="43" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="B77" s="44" t="s">
+      <c r="C79" s="44" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
         <v>671</v>
       </c>
-      <c r="C77" s="45" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="B78" s="44" t="s">
+      <c r="B80" s="43" t="s">
         <v>672</v>
       </c>
-      <c r="C78" s="45" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="B79" s="44" t="s">
+      <c r="C80" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="C79" s="45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B81" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C81" s="44" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
+    <row r="82" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B82" s="43" t="s">
         <v>678</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C82" s="44" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+    <row r="83" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B83" s="43" t="s">
         <v>681</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C83" s="44" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
+    <row r="84" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
         <v>683</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B84" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C84" s="44" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
+    <row r="85" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
         <v>686</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B85" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C85" s="44" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
+    <row r="86" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B86" s="43" t="s">
         <v>690</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C86" s="44" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44" t="s">
+    <row r="87" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
         <v>692</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B87" s="43" t="s">
         <v>693</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="C87" s="44" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44" t="s">
+    <row r="88" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="C87" s="45" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
-        <v>698</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>699</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>685</v>
+      <c r="C88" s="44" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -27316,12 +28337,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC85F59-6E99-B043-B065-677ACC491C5E}">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27367,520 +28388,520 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1" s="51">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51">
+        <v>2023</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51">
+        <v>2024</v>
+      </c>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" s="53"/>
+      <c r="B2" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>717</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>706</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>707</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>708</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>710</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>717</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>706</v>
+      </c>
+      <c r="V2" s="50" t="s">
+        <v>707</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>708</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y2" s="50" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z2" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA2" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="AB2" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="AC2" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE2" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF2" s="50" t="s">
+        <v>717</v>
+      </c>
+      <c r="AG2" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH2" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI2" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ2" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK2" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="AL2" s="52" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM2" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="AN2" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="AO2" s="52" t="s">
+        <v>714</v>
+      </c>
+      <c r="AP2" s="52" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="52">
-        <v>2021</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52">
-        <v>2022</v>
-      </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52">
-        <v>2023</v>
-      </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52">
-        <v>2024</v>
-      </c>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="51" t="s">
-        <v>714</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>715</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>716</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>709</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>711</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>713</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>714</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>715</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="S2" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>709</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="W2" s="51" t="s">
-        <v>711</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>713</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>714</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>715</v>
-      </c>
-      <c r="AB2" s="51" t="s">
-        <v>716</v>
-      </c>
-      <c r="AC2" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="AE2" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="AG2" s="53" t="s">
-        <v>709</v>
-      </c>
-      <c r="AH2" s="53" t="s">
-        <v>710</v>
-      </c>
-      <c r="AI2" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="AJ2" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK2" s="53" t="s">
-        <v>713</v>
-      </c>
-      <c r="AL2" s="53" t="s">
-        <v>714</v>
-      </c>
-      <c r="AM2" s="53" t="s">
-        <v>715</v>
-      </c>
-      <c r="AN2" s="53" t="s">
-        <v>716</v>
-      </c>
-      <c r="AO2" s="53" t="s">
-        <v>717</v>
-      </c>
-      <c r="AP2" s="53" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>702</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
         <v>703</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
         <v>704</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="50"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
         <v>705</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
-        <v>706</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="51"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>708</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="AP10" s="57"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="AP10" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -27892,4 +28913,176 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9F973F-52B1-8343-9F6A-59CD783DD158}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="53" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="53" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="116" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>